--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2745.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2745.xlsx
@@ -354,7 +354,7 @@
         <v>2.412797376700382</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368379916708979</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2745.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2745.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158920258975769</v>
+        <v>1.93308699131012</v>
       </c>
       <c r="B1">
-        <v>2.412797376700382</v>
+        <v>2.709007740020752</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.957734107971191</v>
       </c>
       <c r="D1">
-        <v>2.368379916708979</v>
+        <v>2.732187271118164</v>
       </c>
       <c r="E1">
-        <v>1.221574898845168</v>
+        <v>0.9815295934677124</v>
       </c>
     </row>
   </sheetData>
